--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCodeHOT9_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -460,45 +457,43 @@
       <c r="A18" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2"/>
     </row>
@@ -517,87 +512,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>41</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-medicationcode-hot9-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
